--- a/__fixtures__/simple-multisheet.xlsx
+++ b/__fixtures__/simple-multisheet.xlsx
@@ -441,17 +441,23 @@
       <c r="A2" t="str">
         <v>Sample Community</v>
       </c>
+      <c r="B2" t="str">
+        <v>{"membershipFee":null,"membershipEmail":null}</v>
+      </c>
       <c r="C2" t="str">
         <v>[{"name":"Membership Carry Forward","hidden":false},{"name":"Summer Festival","hidden":false},{"name":"Corn Roast","hidden":false}]</v>
       </c>
       <c r="D2" t="str">
-        <v>[{"name":"meal","count":null,"unitPrice":null,"hidden":false},{"name":"drink","count":null,"unitPrice":null,"hidden":false},{"name":"cotton-candy","count":null,"unitPrice":null,"hidden":false}]</v>
+        <v>[{"name":"meal","count":null,"unitPrice":"5.00","hidden":false},{"name":"drink","count":null,"unitPrice":"1.00","hidden":false},{"name":"cotton-candy","count":null,"unitPrice":null,"hidden":false}]</v>
       </c>
       <c r="E2" t="str">
         <v>[{"name":"cash","hidden":false},{"name":"e-Transfer","hidden":false},{"name":"free","hidden":false}]</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-09-26T17:46:03.846Z</v>
+        <v>2025-09-29T18:29:07.690Z</v>
+      </c>
+      <c r="I2" t="str">
+        <v>dev@email.com</v>
       </c>
     </row>
   </sheetData>

--- a/__fixtures__/simple-multisheet.xlsx
+++ b/__fixtures__/simple-multisheet.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrick/Documents/git/community-db/__fixtures__/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7C0D95-4063-014B-8B5C-93D1B76192A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1620" yWindow="600" windowWidth="49580" windowHeight="28200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Community" sheetId="1" r:id="rId1"/>
     <sheet name="Property" sheetId="2" r:id="rId2"/>
@@ -11,37 +21,327 @@
     <sheet name="Event" sheetId="6" r:id="rId6"/>
     <sheet name="Ticket" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>defaultSetting</t>
+  </si>
+  <si>
+    <t>eventList</t>
+  </si>
+  <si>
+    <t>ticketList</t>
+  </si>
+  <si>
+    <t>paymentMethodList</t>
+  </si>
+  <si>
+    <t>mailchimpSetting</t>
+  </si>
+  <si>
+    <t>geoapifySetting</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>updatedBy</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>{"membershipFee":null,"membershipEmail":null}</t>
+  </si>
+  <si>
+    <t>[{"name":"Membership Carry Forward","hidden":false},{"name":"Summer Festival","hidden":false},{"name":"Corn Roast","hidden":false}]</t>
+  </si>
+  <si>
+    <t>[{"name":"meal","count":null,"unitPrice":"5.00","hidden":false},{"name":"drink","count":null,"unitPrice":"1.00","hidden":false},{"name":"cotton-candy","count":null,"unitPrice":null,"hidden":false}]</t>
+  </si>
+  <si>
+    <t>[{"name":"cash","hidden":false},{"name":"e-Transfer","hidden":false},{"name":"free","hidden":false}]</t>
+  </si>
+  <si>
+    <t>2025-09-29T18:29:07.690Z</t>
+  </si>
+  <si>
+    <t>dev@email.com</t>
+  </si>
+  <si>
+    <t>propertyId</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>streetNo</t>
+  </si>
+  <si>
+    <t>streetName</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>123 Adventure Drive</t>
+  </si>
+  <si>
+    <t>Adventure Drive</t>
+  </si>
+  <si>
+    <t>A0A0A0</t>
+  </si>
+  <si>
+    <t>2nd entry</t>
+  </si>
+  <si>
+    <t>2023-02-23T03:19:09.000Z</t>
+  </si>
+  <si>
+    <t>test@email.com</t>
+  </si>
+  <si>
+    <t>99 Fortune Drive</t>
+  </si>
+  <si>
+    <t>Fortune Drive</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>occupantId</t>
+  </si>
+  <si>
+    <t>setIndex</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>optOut</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>First1</t>
+  </si>
+  <si>
+    <t>Last1</t>
+  </si>
+  <si>
+    <t>First2</t>
+  </si>
+  <si>
+    <t>Last2</t>
+  </si>
+  <si>
+    <t>First3</t>
+  </si>
+  <si>
+    <t>Last3</t>
+  </si>
+  <si>
+    <t>contactId</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>ksmith@email.com</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>4161234567</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>4162345678</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>4163456789</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>4171234567</t>
+  </si>
+  <si>
+    <t>Email3</t>
+  </si>
+  <si>
+    <t>membershipId</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>isMember</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>paymentDeposited</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>e-Transfer</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>eventId</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>Corn Roast</t>
+  </si>
+  <si>
+    <t>2023-08-20T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>Summer Festival</t>
+  </si>
+  <si>
+    <t>2023-06-11T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>Membership Carry Forward</t>
+  </si>
+  <si>
+    <t>2022-02-10T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2021-01-23T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>ticketId</t>
+  </si>
+  <si>
+    <t>ticketName</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cotton-candy</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>2021-12-10T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2023-01-23T00:00:00.000Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,13 +371,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,466 +710,548 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>defaultSetting</v>
-      </c>
-      <c r="C1" t="str">
-        <v>eventList</v>
-      </c>
-      <c r="D1" t="str">
-        <v>ticketList</v>
-      </c>
-      <c r="E1" t="str">
-        <v>paymentMethodList</v>
-      </c>
-      <c r="F1" t="str">
-        <v>mailchimpSetting</v>
-      </c>
-      <c r="G1" t="str">
-        <v>geoapifySetting</v>
-      </c>
-      <c r="H1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="I1" t="str">
-        <v>updatedBy</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Sample Community</v>
-      </c>
-      <c r="B2" t="str">
-        <v>{"membershipFee":null,"membershipEmail":null}</v>
-      </c>
-      <c r="C2" t="str">
-        <v>[{"name":"Membership Carry Forward","hidden":false},{"name":"Summer Festival","hidden":false},{"name":"Corn Roast","hidden":false}]</v>
-      </c>
-      <c r="D2" t="str">
-        <v>[{"name":"meal","count":null,"unitPrice":"5.00","hidden":false},{"name":"drink","count":null,"unitPrice":"1.00","hidden":false},{"name":"cotton-candy","count":null,"unitPrice":null,"hidden":false}]</v>
-      </c>
-      <c r="E2" t="str">
-        <v>[{"name":"cash","hidden":false},{"name":"e-Transfer","hidden":false},{"name":"free","hidden":false}]</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2025-09-29T18:29:07.690Z</v>
-      </c>
-      <c r="I2" t="str">
-        <v>dev@email.com</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError sqref="A1:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>propertyId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>address</v>
-      </c>
-      <c r="C1" t="str">
-        <v>streetNo</v>
-      </c>
-      <c r="D1" t="str">
-        <v>streetName</v>
-      </c>
-      <c r="E1" t="str">
-        <v>postalCode</v>
-      </c>
-      <c r="F1" t="str">
-        <v>city</v>
-      </c>
-      <c r="G1" t="str">
-        <v>country</v>
-      </c>
-      <c r="H1" t="str">
-        <v>lat</v>
-      </c>
-      <c r="I1" t="str">
-        <v>lon</v>
-      </c>
-      <c r="J1" t="str">
-        <v>notes</v>
-      </c>
-      <c r="K1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="L1" t="str">
-        <v>updatedBy</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>123 Adventure Drive</v>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
-      <c r="D2" t="str">
-        <v>Adventure Drive</v>
-      </c>
-      <c r="E2" t="str">
-        <v>A0A0A0</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2nd entry</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2023-02-23T03:19:09.000Z</v>
-      </c>
-      <c r="L2" t="str">
-        <v>test@email.com</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>99 Fortune Drive</v>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3">
         <v>99</v>
       </c>
-      <c r="D3" t="str">
-        <v>Fortune Drive</v>
-      </c>
-      <c r="E3" t="str">
-        <v>A0A0A0</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Notes</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2023-02-23T03:19:09.000Z</v>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError sqref="A1:L3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>occupantId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>propertyId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>firstName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>lastName</v>
-      </c>
-      <c r="E1" t="str">
-        <v>optOut</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>Kevin</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Smith</v>
-      </c>
-      <c r="E2">
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
-        <v>First1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Last1</v>
-      </c>
-      <c r="E3">
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <v>First2</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Last2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="str">
-        <v>First3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Last3</v>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError sqref="A1:H5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>contactId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>occupantId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>type</v>
-      </c>
-      <c r="D1" t="str">
-        <v>label</v>
-      </c>
-      <c r="E1" t="str">
-        <v>value</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>EMAIL</v>
-      </c>
-      <c r="D2" t="str">
-        <v>email</v>
-      </c>
-      <c r="E2" t="str">
-        <v>ksmith@email.com</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
-        <v>EMAIL</v>
-      </c>
-      <c r="D3" t="str">
-        <v>email</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Email1</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <v>PHONE</v>
-      </c>
-      <c r="D4" t="str">
-        <v>home</v>
-      </c>
-      <c r="E4" t="str">
-        <v>4161234567</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="str">
-        <v>PHONE</v>
-      </c>
-      <c r="D5" t="str">
-        <v>work</v>
-      </c>
-      <c r="E5" t="str">
-        <v>4162345678</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="str">
-        <v>PHONE</v>
-      </c>
-      <c r="D6" t="str">
-        <v>cell</v>
-      </c>
-      <c r="E6" t="str">
-        <v>4163456789</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="str">
-        <v>EMAIL</v>
-      </c>
-      <c r="D7" t="str">
-        <v>email</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Email2</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="str">
-        <v>PHONE</v>
-      </c>
-      <c r="D8" t="str">
-        <v>home</v>
-      </c>
-      <c r="E8" t="str">
-        <v>4171234567</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="str">
-        <v>EMAIL</v>
-      </c>
-      <c r="D9" t="str">
-        <v>email</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Email3</v>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError sqref="A1:E9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>membershipId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>propertyId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>year</v>
-      </c>
-      <c r="D1" t="str">
-        <v>isMember</v>
-      </c>
-      <c r="E1" t="str">
-        <v>paymentMethod</v>
-      </c>
-      <c r="F1" t="str">
-        <v>price</v>
-      </c>
-      <c r="G1" t="str">
-        <v>paymentDeposited</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -878,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -891,17 +1281,17 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="str">
-        <v>cash</v>
-      </c>
-      <c r="F3" t="str">
-        <v>20</v>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -915,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -932,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -949,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -962,17 +1352,17 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="str">
-        <v>e-Transfer</v>
-      </c>
-      <c r="F7" t="str">
-        <v>10</v>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -985,14 +1375,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="str">
-        <v>free</v>
+      <c r="E8" t="s">
+        <v>79</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1005,268 +1395,276 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="str">
-        <v>free</v>
+      <c r="E9" t="s">
+        <v>79</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
+    <ignoredError sqref="A1:G9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eventId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>membershipId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>eventName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>eventDate</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
-        <v>Corn Roast</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2023-08-20T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" t="str">
-        <v>Summer Festival</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2023-06-11T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" t="str">
-        <v>Corn Roast</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2023-08-20T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" t="str">
-        <v>Membership Carry Forward</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2022-02-10T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" t="str">
-        <v>Membership Carry Forward</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2021-01-23T00:00:00.000Z</v>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError sqref="A1:D6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ticketId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>eventId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ticketName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>count</v>
-      </c>
-      <c r="E1" t="str">
-        <v>price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>paymentMethod</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>meal</v>
+      <c r="C2" t="s">
+        <v>93</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="str">
-        <v>0</v>
-      </c>
-      <c r="F2" t="str">
-        <v>free</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
-        <v>drink</v>
+      <c r="C3" t="s">
+        <v>95</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="str">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <v>meal</v>
+      <c r="C4" t="s">
+        <v>93</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" t="str">
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <v>free</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="str">
-        <v>cotton-candy</v>
+      <c r="C5" t="s">
+        <v>97</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="str">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="str">
-        <v>meal</v>
+      <c r="C6" t="s">
+        <v>93</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" t="str">
-        <v>5</v>
-      </c>
-      <c r="F6" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="str">
-        <v>drink</v>
+      <c r="C7" t="s">
+        <v>95</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="str">
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
-        <v>e-Transfer</v>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError sqref="A1:F7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/__fixtures__/simple-multisheet.xlsx
+++ b/__fixtures__/simple-multisheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrick/Documents/git/community-db/__fixtures__/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7C0D95-4063-014B-8B5C-93D1B76192A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4E531-7E5F-674C-8F89-14E5877ABA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="600" windowWidth="49580" windowHeight="28200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="600" windowWidth="49580" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Community" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>updatedBy</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
     <t>{"membershipFee":null,"membershipEmail":null}</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>2023-01-23T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>Sample Community</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -748,31 +750,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 B2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -787,34 +789,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -828,25 +830,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -854,22 +856,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>99</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -892,28 +894,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -927,19 +929,19 @@
         <v>-1</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -953,19 +955,19 @@
         <v>-1</v>
       </c>
       <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -979,19 +981,19 @@
         <v>-1</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1005,16 +1007,16 @@
         <v>-1</v>
       </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>99</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>101</v>
-      </c>
-      <c r="H6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1061,19 +1063,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1084,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,13 +1103,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,13 +1120,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,13 +1137,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,13 +1154,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
         <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,13 +1188,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1203,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1230,25 +1232,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1282,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1353,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
         <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1376,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1396,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1422,16 +1424,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1442,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,10 +1458,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1470,10 +1472,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1484,10 +1486,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1498,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1523,22 +1525,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1549,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1569,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>95</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1589,16 +1591,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1609,16 +1611,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1629,16 +1631,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1649,16 +1651,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>95</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/__fixtures__/simple-multisheet.xlsx
+++ b/__fixtures__/simple-multisheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrick/Documents/git/community-db/__fixtures__/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4E531-7E5F-674C-8F89-14E5877ABA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F9D662-6126-6B4F-B41E-E242B28E7CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="600" windowWidth="49580" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="600" windowWidth="49540" windowHeight="28200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Community" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -320,18 +320,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>Previous</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>2021-12-10T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2023-01-23T00:00:00.000Z</t>
   </si>
   <si>
     <t>Sample Community</t>
@@ -713,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -750,7 +738,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -884,10 +872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,9 +913,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
@@ -950,9 +935,6 @@
       </c>
       <c r="B3">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -977,9 +959,6 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
@@ -1003,9 +982,6 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -1017,38 +993,12 @@
       </c>
       <c r="H5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H1 A5:B5 A2:B2 D2:H2 A3:B3 D3:H3 A4:B4 D4:H4 D5:H5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
